--- a/Comedy_Database .xlsx
+++ b/Comedy_Database .xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patri\OneDrive\Documents\GitHub\Movie_Classification\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="940" windowWidth="21040" windowHeight="11200"/>
+    <workbookView xWindow="5940" yWindow="936" windowWidth="21036" windowHeight="11196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="583">
   <si>
     <t>Filename</t>
   </si>
@@ -555,24 +561,9 @@
     <t>Carmen Machi</t>
   </si>
   <si>
-    <t>Downsizing</t>
-  </si>
-  <si>
-    <t>Downsizing_2017.jpg</t>
-  </si>
-  <si>
     <t>Sci-Fi</t>
   </si>
   <si>
-    <t xml:space="preserve">Matt Damon </t>
-  </si>
-  <si>
-    <t>Christoph Waltz</t>
-  </si>
-  <si>
-    <t>Hong Chau</t>
-  </si>
-  <si>
     <t>Charlie and the Chocolate Factory</t>
   </si>
   <si>
@@ -1810,16 +1801,34 @@
   </si>
   <si>
     <t>The_Spy_Who_Shagged_Me_1999</t>
+  </si>
+  <si>
+    <t>Coco</t>
+  </si>
+  <si>
+    <t>Coco_2017</t>
+  </si>
+  <si>
+    <t>animation</t>
+  </si>
+  <si>
+    <t>Edward James Olmos</t>
+  </si>
+  <si>
+    <t>Benjamin Bratt</t>
+  </si>
+  <si>
+    <t>Alanna Ubach</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1860,6 +1869,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1878,7 +1893,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="365">
+  <cellStyleXfs count="366">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2244,8 +2259,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2275,8 +2291,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="365" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="365"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="365">
+  <cellStyles count="366">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2641,10 +2662,19 @@
     <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2937,31 +2967,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:R3"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="9" width="14.83203125" customWidth="1"/>
-    <col min="10" max="10" width="19.83203125" customWidth="1"/>
+    <col min="8" max="9" width="14.77734375" customWidth="1"/>
+    <col min="10" max="10" width="19.77734375" customWidth="1"/>
     <col min="11" max="11" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3122,7 +3152,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17">
+    <row r="6" spans="1:11" ht="16.8">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -3157,7 +3187,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17">
+    <row r="7" spans="1:11" ht="16.8">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -3192,7 +3222,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="17">
+    <row r="8" spans="1:11" ht="16.8">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -3227,7 +3257,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="17">
+    <row r="9" spans="1:11" ht="16.8">
       <c r="A9" s="2" t="s">
         <v>55</v>
       </c>
@@ -3928,11 +3958,11 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" t="s">
-        <v>164</v>
-      </c>
-      <c r="B29" t="s">
-        <v>163</v>
+      <c r="A29" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>577</v>
       </c>
       <c r="C29">
         <v>2017</v>
@@ -3941,33 +3971,33 @@
         <v>20</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>56</v>
+        <v>579</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="G29">
-        <v>5.9</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="J29" t="s">
-        <v>167</v>
-      </c>
-      <c r="K29" t="s">
-        <v>168</v>
+      <c r="I29" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B30" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C30">
         <v>2005</v>
@@ -3979,7 +4009,7 @@
         <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G30" s="5">
         <v>6.7</v>
@@ -3988,21 +4018,21 @@
         <v>1</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="J30" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K30" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="28">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="28.8">
       <c r="A31" s="6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C31" s="8">
         <v>2017</v>
@@ -4023,21 +4053,21 @@
         <v>0</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B32" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C32">
         <v>2017</v>
@@ -4058,21 +4088,21 @@
         <v>1</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="J32" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K32" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B33" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C33">
         <v>1985</v>
@@ -4084,7 +4114,7 @@
         <v>34</v>
       </c>
       <c r="F33" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G33">
         <v>7.8</v>
@@ -4093,21 +4123,21 @@
         <v>0</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="J33" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="K33" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B34" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C34">
         <v>2016</v>
@@ -4131,18 +4161,18 @@
         <v>127</v>
       </c>
       <c r="J34" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="K34" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B35" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C35">
         <v>2016</v>
@@ -4163,21 +4193,21 @@
         <v>0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="J35" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="K35" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B36" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C36">
         <v>1993</v>
@@ -4189,7 +4219,7 @@
         <v>56</v>
       </c>
       <c r="F36" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G36">
         <v>7.8</v>
@@ -4198,21 +4228,21 @@
         <v>0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="J36" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="K36" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B37" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C37">
         <v>1988</v>
@@ -4221,7 +4251,7 @@
         <v>20</v>
       </c>
       <c r="E37" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>43</v>
@@ -4233,21 +4263,21 @@
         <v>0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="J37" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="K37" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B38" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C38">
         <v>2017</v>
@@ -4256,7 +4286,7 @@
         <v>20</v>
       </c>
       <c r="E38" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>43</v>
@@ -4268,21 +4298,21 @@
         <v>1</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="J38" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="K38" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B39" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C39">
         <v>1981</v>
@@ -4291,7 +4321,7 @@
         <v>20</v>
       </c>
       <c r="E39" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>43</v>
@@ -4303,21 +4333,21 @@
         <v>1</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="J39" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="K39" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B40" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C40">
         <v>2016</v>
@@ -4338,21 +4368,21 @@
         <v>1</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J40" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="K40" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B41" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C41">
         <v>2016</v>
@@ -4373,21 +4403,21 @@
         <v>0</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="J41" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K41" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B42" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C42">
         <v>2017</v>
@@ -4408,21 +4438,21 @@
         <v>1</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J42" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="K42" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B43" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C43">
         <v>2015</v>
@@ -4443,21 +4473,21 @@
         <v>1</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="J43" t="s">
         <v>64</v>
       </c>
       <c r="K43" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B44" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C44">
         <v>2017</v>
@@ -4481,18 +4511,18 @@
         <v>69</v>
       </c>
       <c r="J44" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K44" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B45" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C45">
         <v>2014</v>
@@ -4513,10 +4543,10 @@
         <v>1</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J45" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="K45" t="s">
         <v>142</v>
@@ -4524,10 +4554,10 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B46" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C46">
         <v>1985</v>
@@ -4539,7 +4569,7 @@
         <v>34</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G46">
         <v>8.5</v>
@@ -4548,21 +4578,21 @@
         <v>0</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J46" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="K46" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B47" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C47">
         <v>1998</v>
@@ -4583,21 +4613,21 @@
         <v>1</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="J47" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="K47" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B48" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C48">
         <v>2017</v>
@@ -4618,21 +4648,21 @@
         <v>1</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J48" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="K48" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B49" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C49">
         <v>2010</v>
@@ -4653,21 +4683,21 @@
         <v>0</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J49" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="K49" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B50" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C50">
         <v>2012</v>
@@ -4691,7 +4721,7 @@
         <v>132</v>
       </c>
       <c r="J50" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="K50" t="s">
         <v>133</v>
@@ -4699,10 +4729,10 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B51" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C51">
         <v>1975</v>
@@ -4711,7 +4741,7 @@
         <v>20</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>43</v>
@@ -4723,21 +4753,21 @@
         <v>0</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="J51" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="K51" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B52" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C52">
         <v>2015</v>
@@ -4758,27 +4788,27 @@
         <v>0</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="J52" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="K52" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B53" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C53">
         <v>2016</v>
       </c>
       <c r="D53" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E53" t="s">
         <v>33</v>
@@ -4793,21 +4823,21 @@
         <v>1</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="J53" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="K53" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B54" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C54">
         <v>2017</v>
@@ -4828,27 +4858,27 @@
         <v>1</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="J54" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="K54" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B55" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C55">
         <v>2017</v>
       </c>
       <c r="D55" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>20</v>
@@ -4863,21 +4893,21 @@
         <v>1</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="J55" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="K55" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B56" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C56">
         <v>2016</v>
@@ -4898,21 +4928,21 @@
         <v>1</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="J56" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="K56" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B57" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C57">
         <v>2017</v>
@@ -4933,21 +4963,21 @@
         <v>1</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="J57" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="K57" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B58" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C58">
         <v>2014</v>
@@ -4968,21 +4998,21 @@
         <v>0</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="J58" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="K58" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B59" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C59">
         <v>2017</v>
@@ -5003,21 +5033,21 @@
         <v>0</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="J59" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="K59" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B60" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C60">
         <v>2014</v>
@@ -5038,21 +5068,21 @@
         <v>0</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="J60" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="K60" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B61" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C61">
         <v>2016</v>
@@ -5073,21 +5103,21 @@
         <v>1</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="J61" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="K61" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B62" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C62">
         <v>2017</v>
@@ -5108,21 +5138,21 @@
         <v>1</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J62" t="s">
         <v>23</v>
       </c>
       <c r="K62" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B63" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C63">
         <v>2011</v>
@@ -5143,21 +5173,21 @@
         <v>1</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J63" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="K63" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B64" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C64">
         <v>2017</v>
@@ -5166,7 +5196,7 @@
         <v>20</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>43</v>
@@ -5178,21 +5208,21 @@
         <v>1</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="J64" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="K64" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B65" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C65">
         <v>2016</v>
@@ -5213,21 +5243,21 @@
         <v>1</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="J65" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="K65" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B66" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C66">
         <v>1986</v>
@@ -5248,33 +5278,33 @@
         <v>1</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="J66" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="K66" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B67" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C67">
         <v>2016</v>
       </c>
       <c r="D67" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G67">
         <v>5.3</v>
@@ -5283,10 +5313,10 @@
         <v>1</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="J67" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="K67" t="s">
         <v>112</v>
@@ -5294,10 +5324,10 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B68" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C68">
         <v>1991</v>
@@ -5306,7 +5336,7 @@
         <v>20</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>43</v>
@@ -5318,21 +5348,21 @@
         <v>1</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J68" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="K68" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B69" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C69">
         <v>1999</v>
@@ -5353,21 +5383,21 @@
         <v>1</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="J69" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="K69" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B70" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C70">
         <v>1985</v>
@@ -5388,21 +5418,21 @@
         <v>1</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J70" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="K70" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B71" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C71">
         <v>2009</v>
@@ -5423,27 +5453,27 @@
         <v>1</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="J71" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="K71" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B72" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C72">
         <v>2010</v>
       </c>
       <c r="D72" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>20</v>
@@ -5458,21 +5488,21 @@
         <v>0</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="J72" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="K72" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B73" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C73">
         <v>2016</v>
@@ -5493,27 +5523,27 @@
         <v>1</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="J73" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="K73" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B74" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C74">
         <v>2000</v>
       </c>
       <c r="D74" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>20</v>
@@ -5528,27 +5558,27 @@
         <v>1</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="J74" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="K74" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B75" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C75">
         <v>2016</v>
       </c>
       <c r="D75" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>20</v>
@@ -5563,21 +5593,21 @@
         <v>1</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="J75" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="K75" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B76" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C76">
         <v>2000</v>
@@ -5598,27 +5628,27 @@
         <v>1</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="J76" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="K76" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B77" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C77">
         <v>1984</v>
       </c>
       <c r="D77" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E77" t="s">
         <v>33</v>
@@ -5633,21 +5663,21 @@
         <v>1</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="J77" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="K77" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B78" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C78">
         <v>2014</v>
@@ -5668,21 +5698,21 @@
         <v>1</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="J78" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="K78" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B79" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C79">
         <v>1982</v>
@@ -5703,21 +5733,21 @@
         <v>1</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="J79" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="K79" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B80" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C80">
         <v>2015</v>
@@ -5738,21 +5768,21 @@
         <v>1</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="J80" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="K80" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B81" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C81">
         <v>2010</v>
@@ -5776,18 +5806,18 @@
         <v>86</v>
       </c>
       <c r="J81" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="K81" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B82" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C82">
         <v>2005</v>
@@ -5799,7 +5829,7 @@
         <v>47</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G82">
         <v>6.4</v>
@@ -5808,21 +5838,21 @@
         <v>1</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J82" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="K82" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B83" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C83">
         <v>1995</v>
@@ -5843,21 +5873,21 @@
         <v>1</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="J83" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="K83" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B84" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C84">
         <v>2011</v>
@@ -5878,21 +5908,21 @@
         <v>1</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="J84" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="K84" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B85" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C85">
         <v>1998</v>
@@ -5904,7 +5934,7 @@
         <v>56</v>
       </c>
       <c r="F85" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="G85">
         <v>7.2</v>
@@ -5913,21 +5943,21 @@
         <v>1</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="J85" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="K85" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B86" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C86">
         <v>2012</v>
@@ -5948,21 +5978,21 @@
         <v>1</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="J86" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="K86" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B87" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C87">
         <v>2017</v>
@@ -5971,7 +6001,7 @@
         <v>20</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>43</v>
@@ -5983,21 +6013,21 @@
         <v>1</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="J87" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="K87" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B88" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C88">
         <v>1996</v>
@@ -6006,7 +6036,7 @@
         <v>20</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>43</v>
@@ -6018,21 +6048,21 @@
         <v>1</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="J88" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="K88" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B89" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C89">
         <v>2017</v>
@@ -6044,7 +6074,7 @@
         <v>56</v>
       </c>
       <c r="F89" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="G89">
         <v>6.1</v>
@@ -6053,21 +6083,21 @@
         <v>1</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="J89" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="K89" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B90" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C90">
         <v>1999</v>
@@ -6088,21 +6118,21 @@
         <v>1</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="J90" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="K90" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B91" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C91">
         <v>2015</v>
@@ -6123,27 +6153,27 @@
         <v>0</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="J91" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="K91" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B92" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C92">
         <v>2016</v>
       </c>
       <c r="D92" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E92" t="s">
         <v>33</v>
@@ -6158,21 +6188,21 @@
         <v>0</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="J92" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="K92" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B93" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C93">
         <v>1997</v>
@@ -6184,7 +6214,7 @@
         <v>56</v>
       </c>
       <c r="F93" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="G93">
         <v>8.6</v>
@@ -6193,21 +6223,21 @@
         <v>0</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="J93" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="K93" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B94" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C94">
         <v>2011</v>
@@ -6228,21 +6258,21 @@
         <v>1</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="J94" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="K94" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B95" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C95">
         <v>2017</v>
@@ -6251,7 +6281,7 @@
         <v>20</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>57</v>
@@ -6263,27 +6293,27 @@
         <v>1</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="J95" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="K95" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B96" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C96">
         <v>2015</v>
       </c>
       <c r="D96" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E96" t="s">
         <v>33</v>
@@ -6298,27 +6328,27 @@
         <v>1</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="J96" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="K96" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B97" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C97">
         <v>2017</v>
       </c>
       <c r="D97" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>20</v>
@@ -6333,21 +6363,21 @@
         <v>1</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="J97" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="K97" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B98" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C98">
         <v>2017</v>
@@ -6368,21 +6398,21 @@
         <v>0</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="J98" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="K98" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B99" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C99">
         <v>2017</v>
@@ -6403,21 +6433,21 @@
         <v>0</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="J99" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="K99" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B100" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C100">
         <v>2013</v>
@@ -6429,7 +6459,7 @@
         <v>56</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G100">
         <v>7.8</v>
@@ -6444,21 +6474,21 @@
         <v>123</v>
       </c>
       <c r="K100" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B101" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C101">
         <v>2017</v>
       </c>
       <c r="D101" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>20</v>
@@ -6473,21 +6503,21 @@
         <v>1</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="J101" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="K101" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B102" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C102">
         <v>2008</v>
@@ -6508,10 +6538,10 @@
         <v>1</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="J102" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="K102" t="s">
         <v>86</v>
@@ -6519,10 +6549,10 @@
     </row>
     <row r="103" spans="1:11">
       <c r="A103" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B103" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C103">
         <v>2017</v>
@@ -6543,10 +6573,10 @@
         <v>0</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="K103" t="s">
         <v>65</v>
@@ -6554,16 +6584,16 @@
     </row>
     <row r="104" spans="1:11">
       <c r="A104" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C104">
         <v>2007</v>
       </c>
       <c r="D104" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>20</v>
@@ -6578,27 +6608,27 @@
         <v>1</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="J104" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="K104" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B105" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C105">
         <v>2015</v>
       </c>
       <c r="D105" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>20</v>
@@ -6613,21 +6643,21 @@
         <v>1</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="J105" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="K105" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B106" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C106">
         <v>2017</v>
@@ -6648,21 +6678,21 @@
         <v>1</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="J106" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="K106" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B107" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C107">
         <v>1988</v>
@@ -6674,7 +6704,7 @@
         <v>158</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G107">
         <v>6.1</v>
@@ -6683,21 +6713,21 @@
         <v>0</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="J107" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="K107" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B108" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C108">
         <v>2005</v>
@@ -6709,7 +6739,7 @@
         <v>20</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G108">
         <v>6.8</v>
@@ -6718,21 +6748,21 @@
         <v>0</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="J108" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="K108" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B109" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C109">
         <v>2016</v>
@@ -6756,18 +6786,18 @@
         <v>48</v>
       </c>
       <c r="J109" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="K109" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B110" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C110">
         <v>1998</v>
@@ -6779,7 +6809,7 @@
         <v>56</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G110">
         <v>8.1</v>
@@ -6788,21 +6818,21 @@
         <v>1</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="J110" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="K110" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B111" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C111">
         <v>1994</v>
@@ -6811,10 +6841,10 @@
         <v>20</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G111">
         <v>6.3</v>
@@ -6823,21 +6853,21 @@
         <v>0</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="J111" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="K111" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B112" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C112">
         <v>2015</v>
@@ -6858,21 +6888,21 @@
         <v>1</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="J112" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="K112" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B113" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C113">
         <v>1999</v>
@@ -6893,21 +6923,21 @@
         <v>0</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="J113" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="K113" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B114" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C114">
         <v>1993</v>
@@ -6919,7 +6949,7 @@
         <v>20</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="G114">
         <v>6.7</v>
@@ -6928,27 +6958,27 @@
         <v>1</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="J114" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="K114" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B115" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C115">
         <v>2016</v>
       </c>
       <c r="D115" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E115" s="7" t="s">
         <v>20</v>
@@ -6963,27 +6993,27 @@
         <v>1</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="J115" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="K115" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B116" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C116">
         <v>1999</v>
       </c>
       <c r="D116" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E116" t="s">
         <v>33</v>
@@ -6998,18 +7028,24 @@
         <v>1</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J116" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="K116" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I29" r:id="rId1" display="http://www.imdb.com/name/nm0001579/?ref_=adv_li_st_0" xr:uid="{A46EF5A9-EF2A-4380-8DD8-061331C7EB34}"/>
+    <hyperlink ref="J29" r:id="rId2" display="http://www.imdb.com/name/nm0000973/?ref_=adv_li_st_1" xr:uid="{7AEF1E83-38B3-4A9F-B80D-3E16D89D48EA}"/>
+    <hyperlink ref="K29" r:id="rId3" display="http://www.imdb.com/name/nm0005513/?ref_=adv_li_st_2" xr:uid="{34BB8A89-DF99-4FAC-B7AA-3F7E941963AA}"/>
+    <hyperlink ref="A29" r:id="rId4" display="http://www.imdb.com/title/tt2380307/?ref_=adv_li_tt" xr:uid="{D38DA911-A101-481C-895D-8AC0E79B61FE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
